--- a/HaierMDM/2015年11月6日【数据刷新】刷新海外个人供应商银行信息/MDM数据更新.xlsx
+++ b/HaierMDM/2015年11月6日【数据刷新】刷新海外个人供应商银行信息/MDM数据更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="375" windowWidth="19155" windowHeight="6870" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="375" windowWidth="19155" windowHeight="6870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GVS MDM更新银行视图" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17327" uniqueCount="5164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17327" uniqueCount="5165">
   <si>
     <t xml:space="preserve">xuhao </t>
   </si>
@@ -15527,6 +15527,10 @@
   </si>
   <si>
     <t>2015年11月6日15:40:478 批量刷新海外个人供应商银行信息</t>
+  </si>
+  <si>
+    <t>2015110600001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15932,7 +15936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView topLeftCell="D416" workbookViewId="0">
+    <sheetView topLeftCell="D407" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H442"/>
     </sheetView>
   </sheetViews>
@@ -29653,7 +29657,7 @@
   <dimension ref="A1:M247"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39324,8 +39328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46710,8 +46714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S443"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46977,7 +46981,7 @@
         <v>3838</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>4282</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
